--- a/results/v02/results_costs_v02.xlsx
+++ b/results/v02/results_costs_v02.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ntnu_iam_2024\results\v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44982228-2306-4FE8-B18C-4F4F5D3009F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D109E5F8-2097-4937-92C0-3D8167B3AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25830" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55995" yWindow="0" windowWidth="20910" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="annual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="49">
   <si>
     <t>coal_extr</t>
   </si>
@@ -156,6 +157,33 @@
   </si>
   <si>
     <t>Total costs</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -477,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="X35" sqref="X35:AB35"/>
     </sheetView>
   </sheetViews>
@@ -707,11 +735,11 @@
         <v>16.63</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N7:N26" si="1">M8*3600/280</f>
+        <f t="shared" ref="N8:N26" si="1">M8*3600/280</f>
         <v>213.81428571428572</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P7:P12" si="2">N8+$J$72</f>
+        <f t="shared" ref="P8:P12" si="2">N8+$J$72</f>
         <v>281.6142857142857</v>
       </c>
       <c r="R8" s="1">
@@ -1082,7 +1110,7 @@
         <v>273.60000000000002</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P14:P19" si="3">N15+$J$41</f>
+        <f t="shared" ref="P15:P19" si="3">N15+$J$41</f>
         <v>362.08640000000003</v>
       </c>
       <c r="R15" s="1">
@@ -2127,7 +2155,7 @@
         <v>115015.97444089457</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" ref="P35:P40" si="7">N35</f>
+        <f t="shared" ref="P35" si="7">N35</f>
         <v>115015.97444089457</v>
       </c>
       <c r="R35">
@@ -3111,7 +3139,7 @@
         <v>2030</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" ref="J72:J78" si="11">C21+$C$4</f>
+        <f t="shared" ref="J73:J78" si="11">C21+$C$4</f>
         <v>67.8</v>
       </c>
     </row>
@@ -3719,6 +3747,605 @@
       </c>
       <c r="C152">
         <v>22.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED27B05-89DF-4020-9B43-16C45F06E442}">
+  <dimension ref="B2:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3777.119227794733</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3914.4280291318701</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4472.8962720053014</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4923.3897730977496</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5593.5054078674457</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6385.6981388731183</v>
+      </c>
+      <c r="J3" s="2">
+        <v>116802.4610884549</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3777.119227794733</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3914.4280291318701</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4474.7740034122708</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4927.1403284778326</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5600.0769201576159</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6393.6598706162349</v>
+      </c>
+      <c r="J4" s="2">
+        <v>116820.035749856</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3777.8606770939718</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3917.0850448779161</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4477.7509102880322</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4929.3757860543574</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5600.3968112873326</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6393.6598706162358</v>
+      </c>
+      <c r="J5" s="2">
+        <v>116843.5086791153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3814.8852924636349</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4104.5007310402852</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4477.7582915314251</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4929.3757860543556</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5600.3968112873326</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6393.6598706162358</v>
+      </c>
+      <c r="J6" s="2">
+        <v>117737.0634222314</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>350</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3929.4605909301072</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4104.5007310402843</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4477.7582915314251</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4929.3757860543556</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5600.3968112873326</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6393.6598706162358</v>
+      </c>
+      <c r="J7" s="2">
+        <v>118423.0680573928</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>310</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4013.398766816339</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4104.5007310402843</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4477.7582915314251</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4929.3757860543556</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5620.1588234456049</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6555.6713073161154</v>
+      </c>
+      <c r="J8" s="2">
+        <v>119015.4811411394</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4013.398766816339</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4104.5007310402843</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4568.2208076795368</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5054.2831582470053</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5909.0963278085346</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6746.0848464469336</v>
+      </c>
+      <c r="J9" s="2">
+        <v>119680.2159513637</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>290</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5698.1256311447387</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4076.9303639444579</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4344.0240782185056</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4720.2530328664016</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5201.0879473853911</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6484.8121198889912</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7403.3473727890123</v>
+      </c>
+      <c r="J10" s="2">
+        <v>122180.0265599549</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(C3-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:J14" si="0">(D3-D$3)/(D$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:J15" si="1">(C4-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1980213552493817E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6178315204223634E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11748468645309848</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12468067813367734</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5046482100913186E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:J16" si="2">(C5-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9630021043094272E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7877496438100676E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10853455988046712</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12158316185560494</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12320366062744796</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12468067813369156</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5142744662984012E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:J17" si="3">(C6-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99986424550732456</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8556954041269966</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10869958144466377</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12158316185556799</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12320366062744796</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12468067813369156</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.80015637090790004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>350</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:J18" si="4">(C7-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0332685824248804</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8556954041269726</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10869958144466377</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12158316185556799</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12320366062744796</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12468067813369156</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
+        <v>1.38747673108583</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>310</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:J19" si="5">(C8-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2555488659953582</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8556954041269726</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10869958144466377</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12158316185556799</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47650647732762169</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6617789432964369</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8946690267156034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:J20" si="6">(C9-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2555488659953582</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8556954041269726</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1311590941834937</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6586029378474092</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6420955541975539</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6436539863973687</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4637793040417737</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>290</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:J21" si="7">(C10-C$3)/(C$3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9375608252845469</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="7"/>
+        <v>10.974682530615079</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5301251318802542</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6403857319002482</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>15.934671498983338</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="7"/>
+        <v>15.936381767264027</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6039830166143068</v>
       </c>
     </row>
   </sheetData>
